--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>192.7049134707426</v>
+        <v>0.6282387405641111</v>
       </c>
       <c r="R2">
-        <v>1734.344221236684</v>
+        <v>5.654148665077001</v>
       </c>
       <c r="S2">
-        <v>0.1107573536963723</v>
+        <v>0.001302091014384123</v>
       </c>
       <c r="T2">
-        <v>0.1107573536963724</v>
+        <v>0.001302091014384123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
-        <v>691.8475885177878</v>
+        <v>12.60890914444133</v>
       </c>
       <c r="R3">
-        <v>6226.628296660091</v>
+        <v>113.480182299972</v>
       </c>
       <c r="S3">
-        <v>0.3976401363376799</v>
+        <v>0.02613329334548961</v>
       </c>
       <c r="T3">
-        <v>0.3976401363376799</v>
+        <v>0.02613329334548961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>145.695406093413</v>
+        <v>1.700811044710111</v>
       </c>
       <c r="R4">
-        <v>1311.258654840717</v>
+        <v>15.307299402391</v>
       </c>
       <c r="S4">
-        <v>0.08373858940070415</v>
+        <v>0.00352511017785015</v>
       </c>
       <c r="T4">
-        <v>0.08373858940070417</v>
+        <v>0.003525110177850151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N5">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q5">
-        <v>67.90306047095022</v>
+        <v>12.14658491726289</v>
       </c>
       <c r="R5">
-        <v>611.1275442385521</v>
+        <v>109.319264255366</v>
       </c>
       <c r="S5">
-        <v>0.0390273561280472</v>
+        <v>0.02517507764965303</v>
       </c>
       <c r="T5">
-        <v>0.0390273561280472</v>
+        <v>0.02517507764965303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q6">
         <v>243.7850067945307</v>
@@ -818,10 +818,10 @@
         <v>2194.065061150776</v>
       </c>
       <c r="S6">
-        <v>0.1401156915882883</v>
+        <v>0.5052701247040292</v>
       </c>
       <c r="T6">
-        <v>0.1401156915882884</v>
+        <v>0.5052701247040292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N7">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q7">
-        <v>51.338410589114</v>
+        <v>32.88406850593089</v>
       </c>
       <c r="R7">
-        <v>462.045695302026</v>
+        <v>295.956616553378</v>
       </c>
       <c r="S7">
-        <v>0.02950680601453048</v>
+        <v>0.06815569838866853</v>
       </c>
       <c r="T7">
-        <v>0.02950680601453049</v>
+        <v>0.06815569838866853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N8">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q8">
-        <v>64.83227562846622</v>
+        <v>7.516801199735668</v>
       </c>
       <c r="R8">
-        <v>583.490480656196</v>
+        <v>67.651210797621</v>
       </c>
       <c r="S8">
-        <v>0.03726241927823461</v>
+        <v>0.01557936285543154</v>
       </c>
       <c r="T8">
-        <v>0.03726241927823461</v>
+        <v>0.01557936285543154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q9">
-        <v>232.7603004190387</v>
+        <v>150.864085998884</v>
       </c>
       <c r="R9">
-        <v>2094.842703771348</v>
+        <v>1357.776773989956</v>
       </c>
       <c r="S9">
-        <v>0.1337792298892232</v>
+        <v>0.3126817212769037</v>
       </c>
       <c r="T9">
-        <v>0.1337792298892232</v>
+        <v>0.3126817212769037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N10">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q10">
-        <v>49.01673006424699</v>
+        <v>20.35000020839367</v>
       </c>
       <c r="R10">
-        <v>441.150570578223</v>
+        <v>183.150001875543</v>
       </c>
       <c r="S10">
-        <v>0.02817241766691985</v>
+        <v>0.04217752058759002</v>
       </c>
       <c r="T10">
-        <v>0.02817241766691985</v>
+        <v>0.04217752058759003</v>
       </c>
     </row>
   </sheetData>
